--- a/xlsx/電動機_intext.xlsx
+++ b/xlsx/電動機_intext.xlsx
@@ -29,7 +29,7 @@
     <t>发动机</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_電動機</t>
+    <t>体育运动_体育运动_技术_電動機</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
